--- a/src/output/results4.xlsx
+++ b/src/output/results4.xlsx
@@ -346,2922 +346,2922 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>5095.0</v>
+        <v>3088.0</v>
       </c>
       <c r="B1" t="n">
-        <v>1231.0</v>
+        <v>1139.0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5108.0</v>
+        <v>3587.0</v>
       </c>
       <c r="B2" t="n">
-        <v>1160.0</v>
+        <v>1077.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4618.0</v>
+        <v>3338.0</v>
       </c>
       <c r="B3" t="n">
-        <v>1370.0</v>
+        <v>1131.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4030.0</v>
+        <v>2930.0</v>
       </c>
       <c r="B4" t="n">
-        <v>1922.0</v>
+        <v>1247.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3759.0</v>
+        <v>2875.0</v>
       </c>
       <c r="B5" t="n">
-        <v>1997.0</v>
+        <v>1313.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3402.0</v>
+        <v>3485.0</v>
       </c>
       <c r="B6" t="n">
-        <v>1879.0</v>
+        <v>1238.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3304.0</v>
+        <v>3149.0</v>
       </c>
       <c r="B7" t="n">
-        <v>1698.0</v>
+        <v>1181.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3066.0</v>
+        <v>2456.0</v>
       </c>
       <c r="B8" t="n">
-        <v>1586.0</v>
+        <v>1178.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3008.0</v>
+        <v>2406.0</v>
       </c>
       <c r="B9" t="n">
-        <v>1456.0</v>
+        <v>1220.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2930.0</v>
+        <v>2293.0</v>
       </c>
       <c r="B10" t="n">
-        <v>1440.0</v>
+        <v>1154.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2993.0</v>
+        <v>2350.0</v>
       </c>
       <c r="B11" t="n">
-        <v>1397.0</v>
+        <v>1013.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2851.0</v>
+        <v>2443.0</v>
       </c>
       <c r="B12" t="n">
-        <v>1250.0</v>
+        <v>1015.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2776.0</v>
+        <v>2833.0</v>
       </c>
       <c r="B13" t="n">
-        <v>1271.0</v>
+        <v>966.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2733.0</v>
+        <v>2650.0</v>
       </c>
       <c r="B14" t="n">
-        <v>1320.0</v>
+        <v>1020.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2727.0</v>
+        <v>2254.0</v>
       </c>
       <c r="B15" t="n">
-        <v>1318.0</v>
+        <v>944.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2619.0</v>
+        <v>2292.0</v>
       </c>
       <c r="B16" t="n">
-        <v>1177.0</v>
+        <v>1036.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2580.0</v>
+        <v>2262.0</v>
       </c>
       <c r="B17" t="n">
-        <v>1222.0</v>
+        <v>978.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2530.0</v>
+        <v>2350.0</v>
       </c>
       <c r="B18" t="n">
-        <v>1153.0</v>
+        <v>944.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2537.0</v>
+        <v>2266.0</v>
       </c>
       <c r="B19" t="n">
-        <v>1163.0</v>
+        <v>895.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2618.0</v>
+        <v>2743.0</v>
       </c>
       <c r="B20" t="n">
-        <v>1114.0</v>
+        <v>944.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2541.0</v>
+        <v>2544.0</v>
       </c>
       <c r="B21" t="n">
-        <v>1096.0</v>
+        <v>914.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2540.0</v>
+        <v>2214.0</v>
       </c>
       <c r="B22" t="n">
-        <v>1112.0</v>
+        <v>957.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2556.0</v>
+        <v>2277.0</v>
       </c>
       <c r="B23" t="n">
-        <v>1097.0</v>
+        <v>927.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2509.0</v>
+        <v>2337.0</v>
       </c>
       <c r="B24" t="n">
-        <v>1087.0</v>
+        <v>910.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2541.0</v>
+        <v>2351.0</v>
       </c>
       <c r="B25" t="n">
-        <v>1113.0</v>
+        <v>958.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2421.0</v>
+        <v>2347.0</v>
       </c>
       <c r="B26" t="n">
-        <v>1084.0</v>
+        <v>1004.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2637.0</v>
+        <v>2679.0</v>
       </c>
       <c r="B27" t="n">
-        <v>1105.0</v>
+        <v>953.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2547.0</v>
+        <v>2730.0</v>
       </c>
       <c r="B28" t="n">
-        <v>1052.0</v>
+        <v>929.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2543.0</v>
+        <v>2316.0</v>
       </c>
       <c r="B29" t="n">
-        <v>1092.0</v>
+        <v>985.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2475.0</v>
+        <v>2351.0</v>
       </c>
       <c r="B30" t="n">
-        <v>1060.0</v>
+        <v>1029.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2517.0</v>
+        <v>2307.0</v>
       </c>
       <c r="B31" t="n">
-        <v>1080.0</v>
+        <v>1022.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3071.0</v>
+        <v>3286.0</v>
       </c>
       <c r="B32" t="n">
-        <v>1076.0</v>
+        <v>973.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3130.0</v>
+        <v>3218.0</v>
       </c>
       <c r="B33" t="n">
-        <v>1078.0</v>
+        <v>1012.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3091.0</v>
+        <v>3427.0</v>
       </c>
       <c r="B34" t="n">
-        <v>1187.0</v>
+        <v>1083.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2916.0</v>
+        <v>3233.0</v>
       </c>
       <c r="B35" t="n">
-        <v>1296.0</v>
+        <v>1233.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4094.0</v>
+        <v>4408.0</v>
       </c>
       <c r="B36" t="n">
-        <v>1276.0</v>
+        <v>1315.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4113.0</v>
+        <v>4197.0</v>
       </c>
       <c r="B37" t="n">
-        <v>1273.0</v>
+        <v>1295.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4436.0</v>
+        <v>4885.0</v>
       </c>
       <c r="B38" t="n">
-        <v>1523.0</v>
+        <v>1475.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5081.0</v>
+        <v>5369.0</v>
       </c>
       <c r="B39" t="n">
-        <v>1689.0</v>
+        <v>1783.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5483.0</v>
+        <v>5954.0</v>
       </c>
       <c r="B40" t="n">
-        <v>1853.0</v>
+        <v>1877.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4951.0</v>
+        <v>6173.0</v>
       </c>
       <c r="B41" t="n">
-        <v>1961.0</v>
+        <v>2081.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4799.0</v>
+        <v>6118.0</v>
       </c>
       <c r="B42" t="n">
-        <v>2245.0</v>
+        <v>2436.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>6633.0</v>
+        <v>7337.0</v>
       </c>
       <c r="B43" t="n">
-        <v>2302.0</v>
+        <v>2469.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>6383.0</v>
+        <v>6963.0</v>
       </c>
       <c r="B44" t="n">
-        <v>2245.0</v>
+        <v>2591.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>6840.0</v>
+        <v>7753.0</v>
       </c>
       <c r="B45" t="n">
-        <v>2463.0</v>
+        <v>2854.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>7449.0</v>
+        <v>8366.0</v>
       </c>
       <c r="B46" t="n">
-        <v>2741.0</v>
+        <v>2914.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>8082.0</v>
+        <v>8846.0</v>
       </c>
       <c r="B47" t="n">
-        <v>2913.0</v>
+        <v>3192.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>7366.0</v>
+        <v>9566.0</v>
       </c>
       <c r="B48" t="n">
-        <v>3059.0</v>
+        <v>3431.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>6809.0</v>
+        <v>9701.0</v>
       </c>
       <c r="B49" t="n">
-        <v>3366.0</v>
+        <v>3712.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>9647.0</v>
+        <v>10580.0</v>
       </c>
       <c r="B50" t="n">
-        <v>3428.0</v>
+        <v>3893.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>8756.0</v>
+        <v>9838.0</v>
       </c>
       <c r="B51" t="n">
-        <v>3419.0</v>
+        <v>3834.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>9243.0</v>
+        <v>10862.0</v>
       </c>
       <c r="B52" t="n">
-        <v>3534.0</v>
+        <v>4382.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>10120.0</v>
+        <v>11639.0</v>
       </c>
       <c r="B53" t="n">
-        <v>3829.0</v>
+        <v>4506.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>10975.0</v>
+        <v>12443.0</v>
       </c>
       <c r="B54" t="n">
-        <v>3988.0</v>
+        <v>4606.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>9564.0</v>
+        <v>13122.0</v>
       </c>
       <c r="B55" t="n">
-        <v>4213.0</v>
+        <v>4909.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>9116.0</v>
+        <v>13694.0</v>
       </c>
       <c r="B56" t="n">
-        <v>4527.0</v>
+        <v>5309.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>12853.0</v>
+        <v>14471.0</v>
       </c>
       <c r="B57" t="n">
-        <v>4932.0</v>
+        <v>5535.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>11019.0</v>
+        <v>13139.0</v>
       </c>
       <c r="B58" t="n">
-        <v>4471.0</v>
+        <v>5627.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>11885.0</v>
+        <v>14199.0</v>
       </c>
       <c r="B59" t="n">
-        <v>4768.0</v>
+        <v>5967.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>12767.0</v>
+        <v>15194.0</v>
       </c>
       <c r="B60" t="n">
-        <v>5084.0</v>
+        <v>6066.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>13329.0</v>
+        <v>15977.0</v>
       </c>
       <c r="B61" t="n">
-        <v>5107.0</v>
+        <v>6153.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>11720.0</v>
+        <v>17165.0</v>
       </c>
       <c r="B62" t="n">
-        <v>5281.0</v>
+        <v>6629.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>10768.0</v>
+        <v>17677.0</v>
       </c>
       <c r="B63" t="n">
-        <v>5746.0</v>
+        <v>6893.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>15175.0</v>
+        <v>18080.0</v>
       </c>
       <c r="B64" t="n">
-        <v>5958.0</v>
+        <v>7096.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>13023.0</v>
+        <v>16186.0</v>
       </c>
       <c r="B65" t="n">
-        <v>5564.0</v>
+        <v>7094.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>13857.0</v>
+        <v>17166.0</v>
       </c>
       <c r="B66" t="n">
-        <v>5703.0</v>
+        <v>7686.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>14699.0</v>
+        <v>18156.0</v>
       </c>
       <c r="B67" t="n">
-        <v>6297.0</v>
+        <v>7669.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>15627.0</v>
+        <v>18697.0</v>
       </c>
       <c r="B68" t="n">
-        <v>6115.0</v>
+        <v>7590.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>13094.0</v>
+        <v>20250.0</v>
       </c>
       <c r="B69" t="n">
-        <v>6237.0</v>
+        <v>7813.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>12300.0</v>
+        <v>20575.0</v>
       </c>
       <c r="B70" t="n">
-        <v>6842.0</v>
+        <v>8206.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>17067.0</v>
+        <v>19746.0</v>
       </c>
       <c r="B71" t="n">
-        <v>6763.0</v>
+        <v>8432.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>14734.0</v>
+        <v>18037.0</v>
       </c>
       <c r="B72" t="n">
-        <v>6354.0</v>
+        <v>8484.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>15298.0</v>
+        <v>19024.0</v>
       </c>
       <c r="B73" t="n">
-        <v>6477.0</v>
+        <v>8764.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>16524.0</v>
+        <v>19801.0</v>
       </c>
       <c r="B74" t="n">
-        <v>6972.0</v>
+        <v>8565.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>16948.0</v>
+        <v>20084.0</v>
       </c>
       <c r="B75" t="n">
-        <v>6881.0</v>
+        <v>8497.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>14675.0</v>
+        <v>21388.0</v>
       </c>
       <c r="B76" t="n">
-        <v>6732.0</v>
+        <v>8611.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>13457.0</v>
+        <v>22261.0</v>
       </c>
       <c r="B77" t="n">
-        <v>7366.0</v>
+        <v>8956.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>18074.0</v>
+        <v>20886.0</v>
       </c>
       <c r="B78" t="n">
-        <v>7685.0</v>
+        <v>8958.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>16003.0</v>
+        <v>18922.0</v>
       </c>
       <c r="B79" t="n">
-        <v>7085.0</v>
+        <v>8977.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>16252.0</v>
+        <v>19580.0</v>
       </c>
       <c r="B80" t="n">
-        <v>7147.0</v>
+        <v>9164.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>17421.0</v>
+        <v>20086.0</v>
       </c>
       <c r="B81" t="n">
-        <v>7561.0</v>
+        <v>9006.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>17896.0</v>
+        <v>20491.0</v>
       </c>
       <c r="B82" t="n">
-        <v>7219.0</v>
+        <v>8825.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>15208.0</v>
+        <v>21847.0</v>
       </c>
       <c r="B83" t="n">
-        <v>7235.0</v>
+        <v>8940.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>13653.0</v>
+        <v>22191.0</v>
       </c>
       <c r="B84" t="n">
-        <v>7928.0</v>
+        <v>9161.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>18627.0</v>
+        <v>20785.0</v>
       </c>
       <c r="B85" t="n">
-        <v>7802.0</v>
+        <v>9012.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>16110.0</v>
+        <v>18772.0</v>
       </c>
       <c r="B86" t="n">
-        <v>7437.0</v>
+        <v>9174.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>16450.0</v>
+        <v>19103.0</v>
       </c>
       <c r="B87" t="n">
-        <v>7388.0</v>
+        <v>9170.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>17263.0</v>
+        <v>19614.0</v>
       </c>
       <c r="B88" t="n">
-        <v>7691.0</v>
+        <v>8922.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>17556.0</v>
+        <v>19946.0</v>
       </c>
       <c r="B89" t="n">
-        <v>7372.0</v>
+        <v>8625.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>14771.0</v>
+        <v>21247.0</v>
       </c>
       <c r="B90" t="n">
-        <v>7342.0</v>
+        <v>8755.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>13406.0</v>
+        <v>21383.0</v>
       </c>
       <c r="B91" t="n">
-        <v>7880.0</v>
+        <v>8839.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>18349.0</v>
+        <v>19856.0</v>
       </c>
       <c r="B92" t="n">
-        <v>7716.0</v>
+        <v>8857.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>15930.0</v>
+        <v>17973.0</v>
       </c>
       <c r="B93" t="n">
-        <v>7209.0</v>
+        <v>8908.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>16156.0</v>
+        <v>18081.0</v>
       </c>
       <c r="B94" t="n">
-        <v>7354.0</v>
+        <v>9021.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>17132.0</v>
+        <v>18704.0</v>
       </c>
       <c r="B95" t="n">
-        <v>7707.0</v>
+        <v>8419.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>16884.0</v>
+        <v>18811.0</v>
       </c>
       <c r="B96" t="n">
-        <v>7229.0</v>
+        <v>8189.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>12201.0</v>
+        <v>20104.0</v>
       </c>
       <c r="B97" t="n">
-        <v>7077.0</v>
+        <v>8218.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>12983.0</v>
+        <v>19175.0</v>
       </c>
       <c r="B98" t="n">
-        <v>7710.0</v>
+        <v>8277.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>13665.0</v>
+        <v>13677.0</v>
       </c>
       <c r="B99" t="n">
-        <v>7654.0</v>
+        <v>8268.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>11856.0</v>
+        <v>12679.0</v>
       </c>
       <c r="B100" t="n">
-        <v>6744.0</v>
+        <v>8093.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>11373.0</v>
+        <v>12044.0</v>
       </c>
       <c r="B101" t="n">
-        <v>6501.0</v>
+        <v>7507.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>11264.0</v>
+        <v>11590.0</v>
       </c>
       <c r="B102" t="n">
-        <v>6287.0</v>
+        <v>6406.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>10716.0</v>
+        <v>11243.0</v>
       </c>
       <c r="B103" t="n">
-        <v>5441.0</v>
+        <v>5657.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>9086.0</v>
+        <v>13580.0</v>
       </c>
       <c r="B104" t="n">
-        <v>5089.0</v>
+        <v>5385.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>8539.0</v>
+        <v>12190.0</v>
       </c>
       <c r="B105" t="n">
-        <v>5169.0</v>
+        <v>5151.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>11357.0</v>
+        <v>11946.0</v>
       </c>
       <c r="B106" t="n">
-        <v>5040.0</v>
+        <v>4898.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>10090.0</v>
+        <v>11105.0</v>
       </c>
       <c r="B107" t="n">
-        <v>4737.0</v>
+        <v>5194.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>10401.0</v>
+        <v>11445.0</v>
       </c>
       <c r="B108" t="n">
-        <v>4578.0</v>
+        <v>5111.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>11229.0</v>
+        <v>12002.0</v>
       </c>
       <c r="B109" t="n">
-        <v>4821.0</v>
+        <v>5055.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>11627.0</v>
+        <v>12368.0</v>
       </c>
       <c r="B110" t="n">
-        <v>4599.0</v>
+        <v>4886.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>9824.0</v>
+        <v>13242.0</v>
       </c>
       <c r="B111" t="n">
-        <v>4603.0</v>
+        <v>5065.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>9056.0</v>
+        <v>12512.0</v>
       </c>
       <c r="B112" t="n">
-        <v>5120.0</v>
+        <v>5288.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>13320.0</v>
+        <v>13483.0</v>
       </c>
       <c r="B113" t="n">
-        <v>5365.0</v>
+        <v>5395.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>11952.0</v>
+        <v>12062.0</v>
       </c>
       <c r="B114" t="n">
-        <v>5175.0</v>
+        <v>5448.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>12698.0</v>
+        <v>12651.0</v>
       </c>
       <c r="B115" t="n">
-        <v>5199.0</v>
+        <v>5529.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>13348.0</v>
+        <v>13227.0</v>
       </c>
       <c r="B116" t="n">
-        <v>5357.0</v>
+        <v>5344.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>14136.0</v>
+        <v>13561.0</v>
       </c>
       <c r="B117" t="n">
-        <v>5307.0</v>
+        <v>5378.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>12284.0</v>
+        <v>14035.0</v>
       </c>
       <c r="B118" t="n">
-        <v>5593.0</v>
+        <v>5500.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>11022.0</v>
+        <v>13882.0</v>
       </c>
       <c r="B119" t="n">
-        <v>6318.0</v>
+        <v>5801.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>16108.0</v>
+        <v>14703.0</v>
       </c>
       <c r="B120" t="n">
-        <v>6427.0</v>
+        <v>5829.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>14744.0</v>
+        <v>13437.0</v>
       </c>
       <c r="B121" t="n">
-        <v>6364.0</v>
+        <v>5926.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>15429.0</v>
+        <v>13993.0</v>
       </c>
       <c r="B122" t="n">
-        <v>6322.0</v>
+        <v>6009.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>16051.0</v>
+        <v>14461.0</v>
       </c>
       <c r="B123" t="n">
-        <v>6649.0</v>
+        <v>6010.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>17365.0</v>
+        <v>15011.0</v>
       </c>
       <c r="B124" t="n">
-        <v>6587.0</v>
+        <v>5947.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>15077.0</v>
+        <v>15443.0</v>
       </c>
       <c r="B125" t="n">
-        <v>6968.0</v>
+        <v>6166.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>13721.0</v>
+        <v>15330.0</v>
       </c>
       <c r="B126" t="n">
-        <v>7671.0</v>
+        <v>6473.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>19381.0</v>
+        <v>16150.0</v>
       </c>
       <c r="B127" t="n">
-        <v>7916.0</v>
+        <v>6465.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>17587.0</v>
+        <v>15044.0</v>
       </c>
       <c r="B128" t="n">
-        <v>7637.0</v>
+        <v>6640.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>18800.0</v>
+        <v>15316.0</v>
       </c>
       <c r="B129" t="n">
-        <v>7805.0</v>
+        <v>6571.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>19916.0</v>
+        <v>15972.0</v>
       </c>
       <c r="B130" t="n">
-        <v>7786.0</v>
+        <v>6761.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>21408.0</v>
+        <v>16467.0</v>
       </c>
       <c r="B131" t="n">
-        <v>8417.0</v>
+        <v>6655.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>18829.0</v>
+        <v>17424.0</v>
       </c>
       <c r="B132" t="n">
-        <v>8824.0</v>
+        <v>6843.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>17204.0</v>
+        <v>17311.0</v>
       </c>
       <c r="B133" t="n">
-        <v>9677.0</v>
+        <v>7134.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>23576.0</v>
+        <v>17919.0</v>
       </c>
       <c r="B134" t="n">
-        <v>9614.0</v>
+        <v>7396.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>21328.0</v>
+        <v>16609.0</v>
       </c>
       <c r="B135" t="n">
-        <v>9632.0</v>
+        <v>7313.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>22315.0</v>
+        <v>17040.0</v>
       </c>
       <c r="B136" t="n">
-        <v>9710.0</v>
+        <v>7445.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>23678.0</v>
+        <v>17782.0</v>
       </c>
       <c r="B137" t="n">
-        <v>9795.0</v>
+        <v>7506.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>25297.0</v>
+        <v>18107.0</v>
       </c>
       <c r="B138" t="n">
-        <v>10208.0</v>
+        <v>7551.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>22074.0</v>
+        <v>18946.0</v>
       </c>
       <c r="B139" t="n">
-        <v>10842.0</v>
+        <v>7659.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>19944.0</v>
+        <v>18953.0</v>
       </c>
       <c r="B140" t="n">
-        <v>11668.0</v>
+        <v>7907.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>26817.0</v>
+        <v>20103.0</v>
       </c>
       <c r="B141" t="n">
-        <v>11259.0</v>
+        <v>8080.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>24031.0</v>
+        <v>18432.0</v>
       </c>
       <c r="B142" t="n">
-        <v>11086.0</v>
+        <v>8366.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>25287.0</v>
+        <v>18873.0</v>
       </c>
       <c r="B143" t="n">
-        <v>10950.0</v>
+        <v>8456.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>26526.0</v>
+        <v>19268.0</v>
       </c>
       <c r="B144" t="n">
-        <v>11062.0</v>
+        <v>8352.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>28250.0</v>
+        <v>19946.0</v>
       </c>
       <c r="B145" t="n">
-        <v>11472.0</v>
+        <v>8436.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>24942.0</v>
+        <v>21361.0</v>
       </c>
       <c r="B146" t="n">
-        <v>12185.0</v>
+        <v>8698.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>21906.0</v>
+        <v>21248.0</v>
       </c>
       <c r="B147" t="n">
-        <v>13050.0</v>
+        <v>8931.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>29181.0</v>
+        <v>21358.0</v>
       </c>
       <c r="B148" t="n">
-        <v>12725.0</v>
+        <v>9074.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>25955.0</v>
+        <v>19996.0</v>
       </c>
       <c r="B149" t="n">
-        <v>12386.0</v>
+        <v>9178.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>21397.0</v>
+        <v>15179.0</v>
       </c>
       <c r="B150" t="n">
-        <v>12278.0</v>
+        <v>9119.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>22048.0</v>
+        <v>15519.0</v>
       </c>
       <c r="B151" t="n">
-        <v>11453.0</v>
+        <v>9193.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>21449.0</v>
+        <v>15055.0</v>
       </c>
       <c r="B152" t="n">
-        <v>11169.0</v>
+        <v>8823.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>16888.0</v>
+        <v>19966.0</v>
       </c>
       <c r="B153" t="n">
-        <v>10999.0</v>
+        <v>8190.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>16216.0</v>
+        <v>17647.0</v>
       </c>
       <c r="B154" t="n">
-        <v>10773.0</v>
+        <v>7975.0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>13213.0</v>
+        <v>15182.0</v>
       </c>
       <c r="B155" t="n">
-        <v>9872.0</v>
+        <v>7681.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>10838.0</v>
+        <v>12414.0</v>
       </c>
       <c r="B156" t="n">
-        <v>8571.0</v>
+        <v>7521.0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>14137.0</v>
+        <v>14705.0</v>
       </c>
       <c r="B157" t="n">
-        <v>7301.0</v>
+        <v>6925.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>11838.0</v>
+        <v>12944.0</v>
       </c>
       <c r="B158" t="n">
-        <v>6377.0</v>
+        <v>6621.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>10502.0</v>
+        <v>10443.0</v>
       </c>
       <c r="B159" t="n">
-        <v>6033.0</v>
+        <v>6133.0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>8815.0</v>
+        <v>11436.0</v>
       </c>
       <c r="B160" t="n">
-        <v>5751.0</v>
+        <v>6153.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>8892.0</v>
+        <v>11140.0</v>
       </c>
       <c r="B161" t="n">
-        <v>5649.0</v>
+        <v>5836.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>11163.0</v>
+        <v>11311.0</v>
       </c>
       <c r="B162" t="n">
-        <v>5676.0</v>
+        <v>5779.0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>11957.0</v>
+        <v>13804.0</v>
       </c>
       <c r="B163" t="n">
-        <v>5623.0</v>
+        <v>5552.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>11797.0</v>
+        <v>13294.0</v>
       </c>
       <c r="B164" t="n">
-        <v>5045.0</v>
+        <v>5381.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>12286.0</v>
+        <v>13815.0</v>
       </c>
       <c r="B165" t="n">
-        <v>4646.0</v>
+        <v>5442.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>13494.0</v>
+        <v>14728.0</v>
       </c>
       <c r="B166" t="n">
-        <v>4826.0</v>
+        <v>5367.0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>11778.0</v>
+        <v>16731.0</v>
       </c>
       <c r="B167" t="n">
-        <v>5432.0</v>
+        <v>6000.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>11411.0</v>
+        <v>15560.0</v>
       </c>
       <c r="B168" t="n">
-        <v>5947.0</v>
+        <v>6597.0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>16157.0</v>
+        <v>17791.0</v>
       </c>
       <c r="B169" t="n">
-        <v>6143.0</v>
+        <v>7031.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>14888.0</v>
+        <v>16672.0</v>
       </c>
       <c r="B170" t="n">
-        <v>6107.0</v>
+        <v>7201.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>15565.0</v>
+        <v>17321.0</v>
       </c>
       <c r="B171" t="n">
-        <v>6279.0</v>
+        <v>7381.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>16610.0</v>
+        <v>18671.0</v>
       </c>
       <c r="B172" t="n">
-        <v>6283.0</v>
+        <v>7762.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>18181.0</v>
+        <v>19394.0</v>
       </c>
       <c r="B173" t="n">
-        <v>6632.0</v>
+        <v>8114.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>16300.0</v>
+        <v>21987.0</v>
       </c>
       <c r="B174" t="n">
-        <v>7371.0</v>
+        <v>8597.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>14893.0</v>
+        <v>22055.0</v>
       </c>
       <c r="B175" t="n">
-        <v>7967.0</v>
+        <v>9011.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>20736.0</v>
+        <v>22092.0</v>
       </c>
       <c r="B176" t="n">
-        <v>8129.0</v>
+        <v>9511.0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>19246.0</v>
+        <v>20670.0</v>
       </c>
       <c r="B177" t="n">
-        <v>8073.0</v>
+        <v>9807.0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>20418.0</v>
+        <v>22174.0</v>
       </c>
       <c r="B178" t="n">
-        <v>8209.0</v>
+        <v>9823.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>21644.0</v>
+        <v>22980.0</v>
       </c>
       <c r="B179" t="n">
-        <v>8109.0</v>
+        <v>10067.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>23198.0</v>
+        <v>24501.0</v>
       </c>
       <c r="B180" t="n">
-        <v>8824.0</v>
+        <v>10772.0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>20908.0</v>
+        <v>27748.0</v>
       </c>
       <c r="B181" t="n">
-        <v>9883.0</v>
+        <v>11314.0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>19223.0</v>
+        <v>28213.0</v>
       </c>
       <c r="B182" t="n">
-        <v>10598.0</v>
+        <v>11536.0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>26532.0</v>
+        <v>26654.0</v>
       </c>
       <c r="B183" t="n">
-        <v>10473.0</v>
+        <v>12174.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>24041.0</v>
+        <v>25209.0</v>
       </c>
       <c r="B184" t="n">
-        <v>10466.0</v>
+        <v>12589.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>25723.0</v>
+        <v>26781.0</v>
       </c>
       <c r="B185" t="n">
-        <v>10619.0</v>
+        <v>12390.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>26730.0</v>
+        <v>27730.0</v>
       </c>
       <c r="B186" t="n">
-        <v>10472.0</v>
+        <v>12507.0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>29247.0</v>
+        <v>28945.0</v>
       </c>
       <c r="B187" t="n">
-        <v>11320.0</v>
+        <v>13103.0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>25584.0</v>
+        <v>33214.0</v>
       </c>
       <c r="B188" t="n">
-        <v>12410.0</v>
+        <v>13791.0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>23470.0</v>
+        <v>34277.0</v>
       </c>
       <c r="B189" t="n">
-        <v>13273.0</v>
+        <v>14100.0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>31287.0</v>
+        <v>30615.0</v>
       </c>
       <c r="B190" t="n">
-        <v>13211.0</v>
+        <v>14527.0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>28355.0</v>
+        <v>28567.0</v>
       </c>
       <c r="B191" t="n">
-        <v>12690.0</v>
+        <v>14964.0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>29232.0</v>
+        <v>29839.0</v>
       </c>
       <c r="B192" t="n">
-        <v>12654.0</v>
+        <v>14334.0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>29953.0</v>
+        <v>30976.0</v>
       </c>
       <c r="B193" t="n">
-        <v>12582.0</v>
+        <v>14345.0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>32237.0</v>
+        <v>31312.0</v>
       </c>
       <c r="B194" t="n">
-        <v>12991.0</v>
+        <v>15105.0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>28050.0</v>
+        <v>35732.0</v>
       </c>
       <c r="B195" t="n">
-        <v>14392.0</v>
+        <v>15411.0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>25490.0</v>
+        <v>37124.0</v>
       </c>
       <c r="B196" t="n">
-        <v>14974.0</v>
+        <v>15448.0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>33154.0</v>
+        <v>31409.0</v>
       </c>
       <c r="B197" t="n">
-        <v>14621.0</v>
+        <v>16131.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>29091.0</v>
+        <v>29203.0</v>
       </c>
       <c r="B198" t="n">
-        <v>14039.0</v>
+        <v>16165.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>30083.0</v>
+        <v>30107.0</v>
       </c>
       <c r="B199" t="n">
-        <v>13499.0</v>
+        <v>15503.0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>30557.0</v>
+        <v>30994.0</v>
       </c>
       <c r="B200" t="n">
-        <v>13074.0</v>
+        <v>15072.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>32350.0</v>
+        <v>31043.0</v>
       </c>
       <c r="B201" t="n">
-        <v>13803.0</v>
+        <v>15346.0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>27996.0</v>
+        <v>35588.0</v>
       </c>
       <c r="B202" t="n">
-        <v>14759.0</v>
+        <v>15588.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>25327.0</v>
+        <v>36339.0</v>
       </c>
       <c r="B203" t="n">
-        <v>15400.0</v>
+        <v>15699.0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>32363.0</v>
+        <v>30177.0</v>
       </c>
       <c r="B204" t="n">
-        <v>14563.0</v>
+        <v>15621.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>28468.0</v>
+        <v>27349.0</v>
       </c>
       <c r="B205" t="n">
-        <v>13750.0</v>
+        <v>15893.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>28462.0</v>
+        <v>28299.0</v>
       </c>
       <c r="B206" t="n">
-        <v>13537.0</v>
+        <v>15006.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>20662.0</v>
+        <v>31334.0</v>
       </c>
       <c r="B207" t="n">
-        <v>12830.0</v>
+        <v>14516.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>29199.0</v>
+        <v>28759.0</v>
       </c>
       <c r="B208" t="n">
-        <v>12646.0</v>
+        <v>14094.0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>22094.0</v>
+        <v>26880.0</v>
       </c>
       <c r="B209" t="n">
-        <v>12978.0</v>
+        <v>14138.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>19459.0</v>
+        <v>26467.0</v>
       </c>
       <c r="B210" t="n">
-        <v>13278.0</v>
+        <v>14176.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>25709.0</v>
+        <v>25517.0</v>
       </c>
       <c r="B211" t="n">
-        <v>12128.0</v>
+        <v>13041.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>21961.0</v>
+        <v>23016.0</v>
       </c>
       <c r="B212" t="n">
-        <v>10830.0</v>
+        <v>12710.0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>22681.0</v>
+        <v>24137.0</v>
       </c>
       <c r="B213" t="n">
-        <v>10667.0</v>
+        <v>12333.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>22991.0</v>
+        <v>24302.0</v>
       </c>
       <c r="B214" t="n">
-        <v>10243.0</v>
+        <v>12056.0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>24117.0</v>
+        <v>24955.0</v>
       </c>
       <c r="B215" t="n">
-        <v>10582.0</v>
+        <v>11991.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>20901.0</v>
+        <v>27743.0</v>
       </c>
       <c r="B216" t="n">
-        <v>11245.0</v>
+        <v>12146.0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>18853.0</v>
+        <v>28109.0</v>
       </c>
       <c r="B217" t="n">
-        <v>11375.0</v>
+        <v>12296.0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>24778.0</v>
+        <v>24273.0</v>
       </c>
       <c r="B218" t="n">
-        <v>11088.0</v>
+        <v>12411.0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>22002.0</v>
+        <v>22462.0</v>
       </c>
       <c r="B219" t="n">
-        <v>10516.0</v>
+        <v>12419.0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>15537.0</v>
+        <v>24498.0</v>
       </c>
       <c r="B220" t="n">
-        <v>10143.0</v>
+        <v>11840.0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>21460.0</v>
+        <v>22657.0</v>
       </c>
       <c r="B221" t="n">
-        <v>9442.0</v>
+        <v>10932.0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>19680.0</v>
+        <v>20638.0</v>
       </c>
       <c r="B222" t="n">
-        <v>8997.0</v>
+        <v>11023.0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>16846.0</v>
+        <v>22217.0</v>
       </c>
       <c r="B223" t="n">
-        <v>9713.0</v>
+        <v>10957.0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>14908.0</v>
+        <v>21448.0</v>
       </c>
       <c r="B224" t="n">
-        <v>9456.0</v>
+        <v>10558.0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>20386.0</v>
+        <v>20713.0</v>
       </c>
       <c r="B225" t="n">
-        <v>8826.0</v>
+        <v>10145.0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>18419.0</v>
+        <v>18965.0</v>
       </c>
       <c r="B226" t="n">
-        <v>8763.0</v>
+        <v>10309.0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>18561.0</v>
+        <v>19688.0</v>
       </c>
       <c r="B227" t="n">
-        <v>8535.0</v>
+        <v>9995.0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>18973.0</v>
+        <v>19836.0</v>
       </c>
       <c r="B228" t="n">
-        <v>8280.0</v>
+        <v>9513.0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>19661.0</v>
+        <v>20117.0</v>
       </c>
       <c r="B229" t="n">
-        <v>8211.0</v>
+        <v>9546.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>16773.0</v>
+        <v>22052.0</v>
       </c>
       <c r="B230" t="n">
-        <v>8881.0</v>
+        <v>9645.0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>15376.0</v>
+        <v>22512.0</v>
       </c>
       <c r="B231" t="n">
-        <v>9121.0</v>
+        <v>9860.0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>20864.0</v>
+        <v>20007.0</v>
       </c>
       <c r="B232" t="n">
-        <v>9178.0</v>
+        <v>9803.0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>18790.0</v>
+        <v>18489.0</v>
       </c>
       <c r="B233" t="n">
-        <v>8785.0</v>
+        <v>10101.0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>15134.0</v>
+        <v>14078.0</v>
       </c>
       <c r="B234" t="n">
-        <v>8430.0</v>
+        <v>9443.0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>14900.0</v>
+        <v>13927.0</v>
       </c>
       <c r="B235" t="n">
-        <v>8030.0</v>
+        <v>8710.0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>14779.0</v>
+        <v>13239.0</v>
       </c>
       <c r="B236" t="n">
-        <v>7748.0</v>
+        <v>8380.0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>11808.0</v>
+        <v>18242.0</v>
       </c>
       <c r="B237" t="n">
-        <v>7936.0</v>
+        <v>7829.0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>11686.0</v>
+        <v>15713.0</v>
       </c>
       <c r="B238" t="n">
-        <v>7787.0</v>
+        <v>7186.0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>12971.0</v>
+        <v>10998.0</v>
       </c>
       <c r="B239" t="n">
-        <v>7180.0</v>
+        <v>6996.0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>11069.0</v>
+        <v>9718.0</v>
       </c>
       <c r="B240" t="n">
-        <v>6269.0</v>
+        <v>6442.0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>10249.0</v>
+        <v>9497.0</v>
       </c>
       <c r="B241" t="n">
-        <v>5740.0</v>
+        <v>5908.0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>9888.0</v>
+        <v>9166.0</v>
       </c>
       <c r="B242" t="n">
-        <v>5299.0</v>
+        <v>5193.0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>9767.0</v>
+        <v>8751.0</v>
       </c>
       <c r="B243" t="n">
-        <v>5309.0</v>
+        <v>5225.0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>8190.0</v>
+        <v>11145.0</v>
       </c>
       <c r="B244" t="n">
-        <v>5321.0</v>
+        <v>4970.0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>8128.0</v>
+        <v>10154.0</v>
       </c>
       <c r="B245" t="n">
-        <v>5199.0</v>
+        <v>4606.0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>10789.0</v>
+        <v>9610.0</v>
       </c>
       <c r="B246" t="n">
-        <v>4733.0</v>
+        <v>4393.0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>9768.0</v>
+        <v>8718.0</v>
       </c>
       <c r="B247" t="n">
-        <v>4638.0</v>
+        <v>4372.0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>9735.0</v>
+        <v>8955.0</v>
       </c>
       <c r="B248" t="n">
-        <v>4226.0</v>
+        <v>4159.0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>9818.0</v>
+        <v>9170.0</v>
       </c>
       <c r="B249" t="n">
-        <v>4113.0</v>
+        <v>4057.0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>10284.0</v>
+        <v>9692.0</v>
       </c>
       <c r="B250" t="n">
-        <v>4287.0</v>
+        <v>4197.0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>8526.0</v>
+        <v>10726.0</v>
       </c>
       <c r="B251" t="n">
-        <v>4630.0</v>
+        <v>4381.0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>8254.0</v>
+        <v>10295.0</v>
       </c>
       <c r="B252" t="n">
-        <v>4851.0</v>
+        <v>4409.0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>11574.0</v>
+        <v>10469.0</v>
       </c>
       <c r="B253" t="n">
-        <v>4865.0</v>
+        <v>4340.0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>10510.0</v>
+        <v>9896.0</v>
       </c>
       <c r="B254" t="n">
-        <v>4631.0</v>
+        <v>4450.0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>10320.0</v>
+        <v>10009.0</v>
       </c>
       <c r="B255" t="n">
-        <v>4398.0</v>
+        <v>4546.0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>10617.0</v>
+        <v>10289.0</v>
       </c>
       <c r="B256" t="n">
-        <v>4322.0</v>
+        <v>4445.0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>11136.0</v>
+        <v>10691.0</v>
       </c>
       <c r="B257" t="n">
-        <v>4502.0</v>
+        <v>4608.0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>9582.0</v>
+        <v>11673.0</v>
       </c>
       <c r="B258" t="n">
-        <v>4782.0</v>
+        <v>4709.0</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>8816.0</v>
+        <v>11629.0</v>
       </c>
       <c r="B259" t="n">
-        <v>5139.0</v>
+        <v>4782.0</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>12249.0</v>
+        <v>11902.0</v>
       </c>
       <c r="B260" t="n">
-        <v>5142.0</v>
+        <v>4944.0</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>11298.0</v>
+        <v>10816.0</v>
       </c>
       <c r="B261" t="n">
-        <v>5041.0</v>
+        <v>4910.0</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>11105.0</v>
+        <v>10745.0</v>
       </c>
       <c r="B262" t="n">
-        <v>4815.0</v>
+        <v>5022.0</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>11305.0</v>
+        <v>10969.0</v>
       </c>
       <c r="B263" t="n">
-        <v>4809.0</v>
+        <v>4948.0</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>11839.0</v>
+        <v>11238.0</v>
       </c>
       <c r="B264" t="n">
-        <v>4926.0</v>
+        <v>5029.0</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>10050.0</v>
+        <v>12513.0</v>
       </c>
       <c r="B265" t="n">
-        <v>5055.0</v>
+        <v>5111.0</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>9402.0</v>
+        <v>12314.0</v>
       </c>
       <c r="B266" t="n">
-        <v>5326.0</v>
+        <v>5273.0</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>13031.0</v>
+        <v>11995.0</v>
       </c>
       <c r="B267" t="n">
-        <v>5579.0</v>
+        <v>5310.0</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>11882.0</v>
+        <v>11377.0</v>
       </c>
       <c r="B268" t="n">
-        <v>5255.0</v>
+        <v>5325.0</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>11712.0</v>
+        <v>11363.0</v>
       </c>
       <c r="B269" t="n">
-        <v>5207.0</v>
+        <v>5173.0</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>11940.0</v>
+        <v>11329.0</v>
       </c>
       <c r="B270" t="n">
-        <v>5130.0</v>
+        <v>5110.0</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>12383.0</v>
+        <v>11891.0</v>
       </c>
       <c r="B271" t="n">
-        <v>5113.0</v>
+        <v>5128.0</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>10584.0</v>
+        <v>12494.0</v>
       </c>
       <c r="B272" t="n">
-        <v>5456.0</v>
+        <v>5270.0</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>9583.0</v>
+        <v>12681.0</v>
       </c>
       <c r="B273" t="n">
-        <v>5644.0</v>
+        <v>5460.0</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>9119.0</v>
+        <v>11945.0</v>
       </c>
       <c r="B274" t="n">
-        <v>5649.0</v>
+        <v>5425.0</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>12024.0</v>
+        <v>11678.0</v>
       </c>
       <c r="B275" t="n">
-        <v>5446.0</v>
+        <v>5398.0</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>10757.0</v>
+        <v>10625.0</v>
       </c>
       <c r="B276" t="n">
-        <v>4974.0</v>
+        <v>5201.0</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>10507.0</v>
+        <v>10965.0</v>
       </c>
       <c r="B277" t="n">
-        <v>4797.0</v>
+        <v>5256.0</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>10736.0</v>
+        <v>11206.0</v>
       </c>
       <c r="B278" t="n">
-        <v>4784.0</v>
+        <v>5039.0</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>8806.0</v>
+        <v>11395.0</v>
       </c>
       <c r="B279" t="n">
-        <v>4637.0</v>
+        <v>5003.0</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>8081.0</v>
+        <v>11091.0</v>
       </c>
       <c r="B280" t="n">
-        <v>4893.0</v>
+        <v>5087.0</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>11838.0</v>
+        <v>12352.0</v>
       </c>
       <c r="B281" t="n">
-        <v>5019.0</v>
+        <v>5263.0</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>7491.0</v>
+        <v>10485.0</v>
       </c>
       <c r="B282" t="n">
-        <v>4878.0</v>
+        <v>5082.0</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>10810.0</v>
+        <v>11879.0</v>
       </c>
       <c r="B283" t="n">
-        <v>4618.0</v>
+        <v>5266.0</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>9802.0</v>
+        <v>10910.0</v>
       </c>
       <c r="B284" t="n">
-        <v>4547.0</v>
+        <v>4914.0</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>10123.0</v>
+        <v>11153.0</v>
       </c>
       <c r="B285" t="n">
-        <v>4210.0</v>
+        <v>5105.0</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>8470.0</v>
+        <v>11555.0</v>
       </c>
       <c r="B286" t="n">
-        <v>4351.0</v>
+        <v>4920.0</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>7604.0</v>
+        <v>11053.0</v>
       </c>
       <c r="B287" t="n">
-        <v>4537.0</v>
+        <v>5025.0</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>11055.0</v>
+        <v>12081.0</v>
       </c>
       <c r="B288" t="n">
-        <v>4545.0</v>
+        <v>5005.0</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>10043.0</v>
+        <v>11354.0</v>
       </c>
       <c r="B289" t="n">
-        <v>4435.0</v>
+        <v>5180.0</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>10050.0</v>
+        <v>11321.0</v>
       </c>
       <c r="B290" t="n">
-        <v>4364.0</v>
+        <v>5161.0</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>10343.0</v>
+        <v>11901.0</v>
       </c>
       <c r="B291" t="n">
-        <v>4478.0</v>
+        <v>5100.0</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>10679.0</v>
+        <v>11928.0</v>
       </c>
       <c r="B292" t="n">
-        <v>4435.0</v>
+        <v>5101.0</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>9043.0</v>
+        <v>12598.0</v>
       </c>
       <c r="B293" t="n">
-        <v>4483.0</v>
+        <v>5175.0</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>8260.0</v>
+        <v>12835.0</v>
       </c>
       <c r="B294" t="n">
-        <v>4839.0</v>
+        <v>5373.0</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>11590.0</v>
+        <v>12709.0</v>
       </c>
       <c r="B295" t="n">
-        <v>4932.0</v>
+        <v>5474.0</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>10350.0</v>
+        <v>11593.0</v>
       </c>
       <c r="B296" t="n">
-        <v>4756.0</v>
+        <v>5545.0</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>10286.0</v>
+        <v>12004.0</v>
       </c>
       <c r="B297" t="n">
-        <v>4589.0</v>
+        <v>5472.0</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>10799.0</v>
+        <v>12243.0</v>
       </c>
       <c r="B298" t="n">
-        <v>4616.0</v>
+        <v>5400.0</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>10996.0</v>
+        <v>12432.0</v>
       </c>
       <c r="B299" t="n">
-        <v>4637.0</v>
+        <v>5364.0</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>9545.0</v>
+        <v>13119.0</v>
       </c>
       <c r="B300" t="n">
-        <v>4733.0</v>
+        <v>5470.0</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>8406.0</v>
+        <v>13296.0</v>
       </c>
       <c r="B301" t="n">
-        <v>4953.0</v>
+        <v>5586.0</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>12062.0</v>
+        <v>12962.0</v>
       </c>
       <c r="B302" t="n">
-        <v>5138.0</v>
+        <v>5569.0</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>10702.0</v>
+        <v>11833.0</v>
       </c>
       <c r="B303" t="n">
-        <v>4822.0</v>
+        <v>5777.0</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>10847.0</v>
+        <v>12022.0</v>
       </c>
       <c r="B304" t="n">
-        <v>4725.0</v>
+        <v>5761.0</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>9061.0</v>
+        <v>9527.0</v>
       </c>
       <c r="B305" t="n">
-        <v>4758.0</v>
+        <v>5518.0</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>9373.0</v>
+        <v>9441.0</v>
       </c>
       <c r="B306" t="n">
-        <v>4701.0</v>
+        <v>5452.0</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>7657.0</v>
+        <v>12965.0</v>
       </c>
       <c r="B307" t="n">
-        <v>4713.0</v>
+        <v>5235.0</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>7689.0</v>
+        <v>11342.0</v>
       </c>
       <c r="B308" t="n">
-        <v>4606.0</v>
+        <v>4935.0</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>8519.0</v>
+        <v>8745.0</v>
       </c>
       <c r="B309" t="n">
-        <v>4507.0</v>
+        <v>4859.0</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>7547.0</v>
+        <v>7875.0</v>
       </c>
       <c r="B310" t="n">
-        <v>4112.0</v>
+        <v>4825.0</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>7294.0</v>
+        <v>7455.0</v>
       </c>
       <c r="B311" t="n">
-        <v>3888.0</v>
+        <v>4582.0</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>7214.0</v>
+        <v>7642.0</v>
       </c>
       <c r="B312" t="n">
-        <v>3473.0</v>
+        <v>4110.0</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>7307.0</v>
+        <v>7374.0</v>
       </c>
       <c r="B313" t="n">
-        <v>3421.0</v>
+        <v>3688.0</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>5561.0</v>
+        <v>8710.0</v>
       </c>
       <c r="B314" t="n">
-        <v>3247.0</v>
+        <v>3567.0</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>5887.0</v>
+        <v>8098.0</v>
       </c>
       <c r="B315" t="n">
-        <v>3550.0</v>
+        <v>3582.0</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>5413.0</v>
+        <v>7091.0</v>
       </c>
       <c r="B316" t="n">
-        <v>3416.0</v>
+        <v>3438.0</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>6401.0</v>
+        <v>6302.0</v>
       </c>
       <c r="B317" t="n">
-        <v>3240.0</v>
+        <v>3296.0</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>5730.0</v>
+        <v>5491.0</v>
       </c>
       <c r="B318" t="n">
-        <v>2908.0</v>
+        <v>3173.0</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>5492.0</v>
+        <v>5597.0</v>
       </c>
       <c r="B319" t="n">
-        <v>2666.0</v>
+        <v>3018.0</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>5692.0</v>
+        <v>5673.0</v>
       </c>
       <c r="B320" t="n">
-        <v>2570.0</v>
+        <v>2760.0</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>4398.0</v>
+        <v>6222.0</v>
       </c>
       <c r="B321" t="n">
-        <v>2402.0</v>
+        <v>2602.0</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>4797.0</v>
+        <v>5750.0</v>
       </c>
       <c r="B322" t="n">
-        <v>2595.0</v>
+        <v>2612.0</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>5933.0</v>
+        <v>5555.0</v>
       </c>
       <c r="B323" t="n">
-        <v>2673.0</v>
+        <v>2539.0</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>5325.0</v>
+        <v>4984.0</v>
       </c>
       <c r="B324" t="n">
-        <v>2457.0</v>
+        <v>2565.0</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>5308.0</v>
+        <v>5093.0</v>
       </c>
       <c r="B325" t="n">
-        <v>2501.0</v>
+        <v>2455.0</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>5541.0</v>
+        <v>5063.0</v>
       </c>
       <c r="B326" t="n">
-        <v>2369.0</v>
+        <v>2330.0</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>5437.0</v>
+        <v>5160.0</v>
       </c>
       <c r="B327" t="n">
-        <v>2387.0</v>
+        <v>2289.0</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>4443.0</v>
+        <v>6101.0</v>
       </c>
       <c r="B328" t="n">
-        <v>2355.0</v>
+        <v>2278.0</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>4676.0</v>
+        <v>5751.0</v>
       </c>
       <c r="B329" t="n">
-        <v>2480.0</v>
+        <v>2289.0</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>5663.0</v>
+        <v>5081.0</v>
       </c>
       <c r="B330" t="n">
-        <v>2410.0</v>
+        <v>2322.0</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>4987.0</v>
+        <v>4655.0</v>
       </c>
       <c r="B331" t="n">
-        <v>2366.0</v>
+        <v>2460.0</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>5157.0</v>
+        <v>4780.0</v>
       </c>
       <c r="B332" t="n">
-        <v>2345.0</v>
+        <v>2458.0</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>5208.0</v>
+        <v>4673.0</v>
       </c>
       <c r="B333" t="n">
-        <v>2285.0</v>
+        <v>2117.0</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>5474.0</v>
+        <v>4659.0</v>
       </c>
       <c r="B334" t="n">
-        <v>2193.0</v>
+        <v>2024.0</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>4459.0</v>
+        <v>5586.0</v>
       </c>
       <c r="B335" t="n">
-        <v>2309.0</v>
+        <v>2036.0</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>4583.0</v>
+        <v>5261.0</v>
       </c>
       <c r="B336" t="n">
-        <v>2339.0</v>
+        <v>2010.0</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>4215.0</v>
+        <v>3716.0</v>
       </c>
       <c r="B337" t="n">
-        <v>2363.0</v>
+        <v>2157.0</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>3995.0</v>
+        <v>3511.0</v>
       </c>
       <c r="B338" t="n">
-        <v>2366.0</v>
+        <v>2133.0</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>3767.0</v>
+        <v>3337.0</v>
       </c>
       <c r="B339" t="n">
-        <v>2111.0</v>
+        <v>1821.0</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>3506.0</v>
+        <v>3034.0</v>
       </c>
       <c r="B340" t="n">
-        <v>1943.0</v>
+        <v>1737.0</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>3257.0</v>
+        <v>3015.0</v>
       </c>
       <c r="B341" t="n">
-        <v>1739.0</v>
+        <v>1581.0</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>3063.0</v>
+        <v>3440.0</v>
       </c>
       <c r="B342" t="n">
-        <v>1677.0</v>
+        <v>1365.0</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>2923.0</v>
+        <v>3208.0</v>
       </c>
       <c r="B343" t="n">
-        <v>1559.0</v>
+        <v>1332.0</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>2877.0</v>
+        <v>2513.0</v>
       </c>
       <c r="B344" t="n">
-        <v>1494.0</v>
+        <v>1305.0</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>2765.0</v>
+        <v>2338.0</v>
       </c>
       <c r="B345" t="n">
-        <v>1348.0</v>
+        <v>1327.0</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>2779.0</v>
+        <v>2367.0</v>
       </c>
       <c r="B346" t="n">
-        <v>1347.0</v>
+        <v>1168.0</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>2627.0</v>
+        <v>2346.0</v>
       </c>
       <c r="B347" t="n">
-        <v>1320.0</v>
+        <v>1097.0</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>2677.0</v>
+        <v>2250.0</v>
       </c>
       <c r="B348" t="n">
-        <v>1271.0</v>
+        <v>977.0</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>2595.0</v>
+        <v>2643.0</v>
       </c>
       <c r="B349" t="n">
-        <v>1221.0</v>
+        <v>1011.0</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>2571.0</v>
+        <v>2590.0</v>
       </c>
       <c r="B350" t="n">
-        <v>1209.0</v>
+        <v>988.0</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>2518.0</v>
+        <v>2193.0</v>
       </c>
       <c r="B351" t="n">
-        <v>1213.0</v>
+        <v>949.0</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>2472.0</v>
+        <v>2056.0</v>
       </c>
       <c r="B352" t="n">
-        <v>1073.0</v>
+        <v>949.0</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>2536.0</v>
+        <v>2168.0</v>
       </c>
       <c r="B353" t="n">
-        <v>1110.0</v>
+        <v>953.0</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>2476.0</v>
+        <v>2132.0</v>
       </c>
       <c r="B354" t="n">
-        <v>1031.0</v>
+        <v>920.0</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>2561.0</v>
+        <v>2129.0</v>
       </c>
       <c r="B355" t="n">
-        <v>1136.0</v>
+        <v>872.0</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>2480.0</v>
+        <v>2627.0</v>
       </c>
       <c r="B356" t="n">
-        <v>1092.0</v>
+        <v>883.0</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>2469.0</v>
+        <v>2422.0</v>
       </c>
       <c r="B357" t="n">
-        <v>1058.0</v>
+        <v>886.0</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>2494.0</v>
+        <v>2088.0</v>
       </c>
       <c r="B358" t="n">
-        <v>1057.0</v>
+        <v>878.0</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>2430.0</v>
+        <v>2130.0</v>
       </c>
       <c r="B359" t="n">
-        <v>1045.0</v>
+        <v>904.0</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>2439.0</v>
+        <v>2126.0</v>
       </c>
       <c r="B360" t="n">
-        <v>1057.0</v>
+        <v>881.0</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>2540.0</v>
+        <v>2111.0</v>
       </c>
       <c r="B361" t="n">
-        <v>1055.0</v>
+        <v>830.0</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>2535.0</v>
+        <v>1890.0</v>
       </c>
       <c r="B362" t="n">
-        <v>1101.0</v>
+        <v>782.0</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>2511.0</v>
+        <v>2175.0</v>
       </c>
       <c r="B363" t="n">
-        <v>943.0</v>
+        <v>824.0</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>2424.0</v>
+        <v>2033.0</v>
       </c>
       <c r="B364" t="n">
-        <v>1006.0</v>
+        <v>874.0</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>2452.0</v>
+        <v>1861.0</v>
       </c>
       <c r="B365" t="n">
-        <v>1068.0</v>
+        <v>864.0</v>
       </c>
     </row>
   </sheetData>
